--- a/src/main/resources/tp/理货单.xlsx
+++ b/src/main/resources/tp/理货单.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20346"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\BP\src\main\resources\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{164F67EF-A02B-4DA2-AC27-E5683C70139A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547F0C0C-8437-4320-B6C0-516AF50A099B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主单" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="202">
   <si>
     <t>主单号</t>
   </si>
@@ -739,12 +739,16 @@
     <t>t.remark5}}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>t.charge_wt</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -791,6 +795,12 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -850,7 +860,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -870,6 +880,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1185,15 +1198,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AS2"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AS7" sqref="AS7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1363,7 +1376,7 @@
       <c r="A2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1379,7 +1392,7 @@
         <v>92</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>93</v>
+        <v>201</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>94</v>
@@ -1499,21 +1512,21 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AM1021"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AM2" sqref="AM2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -43578,15 +43591,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:W1119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/tp/理货单.xlsx
+++ b/src/main/resources/tp/理货单.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\BP\src\main\resources\tp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bdiam\BP\src\main\resources\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547F0C0C-8437-4320-B6C0-516AF50A099B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919B9CFF-1A86-4166-8E1D-7F7803AF0A02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主单" sheetId="1" r:id="rId1"/>
@@ -640,10 +640,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{{$fe:list t.party_No</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>t.code_ts</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -742,6 +738,10 @@
   <si>
     <t>t.charge_wt</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{$fe:list t.party_no</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1205,8 +1205,8 @@
   </sheetPr>
   <dimension ref="A1:AS2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1392,7 +1392,7 @@
         <v>92</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>94</v>
@@ -43598,7 +43598,7 @@
   </sheetPr>
   <dimension ref="A1:W1119"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -43650,7 +43650,7 @@
         <v>75</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>76</v>
@@ -43674,7 +43674,7 @@
         <v>82</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>83</v>
@@ -43693,74 +43693,74 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>182</v>
+      <c r="J2" s="7" t="s">
+        <v>196</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="R2" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="V2" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="W2" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -71691,7 +71691,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/src/main/resources/tp/理货单.xlsx
+++ b/src/main/resources/tp/理货单.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bdiam\BP\src\main\resources\tp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\BP2\BP\src\main\resources\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919B9CFF-1A86-4166-8E1D-7F7803AF0A02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92F48AA-8D04-43D2-BC7C-614E80617FA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主单" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="204">
   <si>
     <t>主单号</t>
   </si>
@@ -36,9 +36,6 @@
     <t>航班日期</t>
   </si>
   <si>
-    <t>进港日期</t>
-  </si>
-  <si>
     <t>件数</t>
   </si>
   <si>
@@ -48,43 +45,10 @@
     <t>分单数</t>
   </si>
   <si>
-    <t>起运国家</t>
-  </si>
-  <si>
-    <t>起运港口</t>
-  </si>
-  <si>
-    <t>进出口岸</t>
-  </si>
-  <si>
-    <t>运输工具</t>
-  </si>
-  <si>
-    <t>地面代理</t>
-  </si>
-  <si>
-    <t>一单到底</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
-    <t>报检类型</t>
-  </si>
-  <si>
-    <t>仓库编码</t>
-  </si>
-  <si>
     <t>报关类别</t>
-  </si>
-  <si>
-    <t>监管方式</t>
-  </si>
-  <si>
-    <t>运费币制</t>
-  </si>
-  <si>
-    <t>运费费率</t>
   </si>
   <si>
     <t>保费币制</t>
@@ -108,9 +72,6 @@
     <t>经营单位代码</t>
   </si>
   <si>
-    <t>发件人</t>
-  </si>
-  <si>
     <t>发件人地址</t>
   </si>
   <si>
@@ -129,22 +90,10 @@
     <t>运输工具名称</t>
   </si>
   <si>
-    <t>货主单位统一社会信用代码</t>
-  </si>
-  <si>
-    <t>申报单位统一社会信用代码</t>
-  </si>
-  <si>
     <t>分单号</t>
   </si>
   <si>
     <t>净重</t>
-  </si>
-  <si>
-    <t>贸易国别</t>
-  </si>
-  <si>
-    <t>发货人姓名</t>
   </si>
   <si>
     <t>收件人姓名</t>
@@ -160,18 +109,6 @@
   </si>
   <si>
     <t>收件人电话</t>
-  </si>
-  <si>
-    <t>是否含木质包装</t>
-  </si>
-  <si>
-    <t>是否为旧物品</t>
-  </si>
-  <si>
-    <t>是否为低温运输</t>
-  </si>
-  <si>
-    <t>包装种类</t>
   </si>
   <si>
     <t>英文收件人</t>
@@ -222,28 +159,13 @@
     <t>报检状态</t>
   </si>
   <si>
-    <t>币制</t>
-  </si>
-  <si>
-    <t>证件类型</t>
-  </si>
-  <si>
     <t>商品编码</t>
   </si>
   <si>
     <t>物品名称</t>
   </si>
   <si>
-    <t>申报单价</t>
-  </si>
-  <si>
     <t>数量</t>
-  </si>
-  <si>
-    <t>商品重量</t>
-  </si>
-  <si>
-    <t>产销城市</t>
   </si>
   <si>
     <t>英文商品名称</t>
@@ -252,25 +174,10 @@
     <t>申报实价</t>
   </si>
   <si>
-    <t>法定数量1</t>
-  </si>
-  <si>
-    <t>法定单位1</t>
-  </si>
-  <si>
     <t>法定数量2</t>
   </si>
   <si>
     <t>法定单位2</t>
-  </si>
-  <si>
-    <t>申报单位</t>
-  </si>
-  <si>
-    <t>规格</t>
-  </si>
-  <si>
-    <t>用途</t>
   </si>
   <si>
     <t>备用字段1</t>
@@ -743,6 +650,138 @@
     <t>{{$fe:list t.party_no</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>进港日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>起运国家</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>起运港口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进出口岸</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输工具</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面代理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一单到底</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>报检类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库编码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>报关类别</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>运费币制</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>运费费率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营单位名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>发件人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>货主单位统一社会信用代码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>申报单位统一社会信用代码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贸易国别</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货人姓名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否含木质包装</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为旧物品</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为低温运输</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装种类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>币制</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>监管方式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>申报单价</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品重量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产销城市</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>法定数量1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>法定单位1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>申报单位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -775,26 +814,31 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1205,8 +1249,8 @@
   </sheetPr>
   <dimension ref="A1:AS2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AS1" sqref="AS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1249,264 +1293,264 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
+      <c r="Q1" s="1" t="s">
+        <v>178</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN2" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P2" s="7" t="s">
+      <c r="AO2" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="Q2" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="R2" s="7" t="s">
+      <c r="AP2" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="AQ2" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="AR2" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="AS2" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG2" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH2" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI2" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK2" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="AL2" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM2" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN2" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO2" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="AP2" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="AQ2" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="AR2" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS2" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1525,8 +1569,8 @@
   </sheetPr>
   <dimension ref="A1:AM1021"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AK1" sqref="AK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1567,240 +1611,240 @@
   <sheetData>
     <row r="1" spans="1:39" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>45</v>
+      <c r="AH1" s="2" t="s">
+        <v>14</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>46</v>
+      <c r="AI1" s="2" t="s">
+        <v>15</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>47</v>
+      <c r="AJ1" s="1" t="s">
+        <v>193</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>48</v>
+      <c r="AK1" s="1" t="s">
+        <v>195</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>49</v>
+      <c r="AL1" s="1" t="s">
+        <v>194</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>50</v>
+      <c r="AM1" s="2" t="s">
+        <v>7</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>51</v>
+    </row>
+    <row r="2" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>112</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD1" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AE1" s="2" t="s">
-        <v>63</v>
+      <c r="C2" s="7" t="s">
+        <v>113</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="D2" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AG1" s="2" t="s">
-        <v>65</v>
+      <c r="F2" s="7" t="s">
+        <v>122</v>
       </c>
-      <c r="AH1" s="2" t="s">
-        <v>26</v>
+      <c r="G2" s="7" t="s">
+        <v>114</v>
       </c>
-      <c r="AI1" s="2" t="s">
-        <v>27</v>
+      <c r="H2" s="7" t="s">
+        <v>124</v>
       </c>
-      <c r="AJ1" s="2" t="s">
-        <v>66</v>
+      <c r="I2" s="7" t="s">
+        <v>125</v>
       </c>
-      <c r="AK1" s="2" t="s">
-        <v>67</v>
+      <c r="J2" s="7" t="s">
+        <v>126</v>
       </c>
-      <c r="AL1" s="2" t="s">
-        <v>18</v>
+      <c r="K2" s="7" t="s">
+        <v>127</v>
       </c>
-      <c r="AM1" s="2" t="s">
-        <v>14</v>
+      <c r="L2" s="7" t="s">
+        <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="M2" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK2" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG2" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH2" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI2" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="AK2" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="AL2" s="7" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="AM2" s="7" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:39" ht="16.5" x14ac:dyDescent="0.35">
@@ -43598,8 +43642,8 @@
   </sheetPr>
   <dimension ref="A1:W1119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -43623,144 +43667,144 @@
   <sheetData>
     <row r="1" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>70</v>
+      <c r="D1" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>72</v>
+      <c r="F1" s="1" t="s">
+        <v>197</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>73</v>
+      <c r="G1" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>76</v>
+      <c r="K1" s="1" t="s">
+        <v>199</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>77</v>
+      <c r="L1" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>80</v>
+      <c r="O1" s="1" t="s">
+        <v>201</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>81</v>
+      <c r="P1" s="1" t="s">
+        <v>202</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>82</v>
+      <c r="Q1" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">

--- a/src/main/resources/tp/理货单.xlsx
+++ b/src/main/resources/tp/理货单.xlsx
@@ -611,10 +611,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -641,66 +641,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,17 +662,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -742,14 +703,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -770,6 +723,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -777,10 +770,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -799,25 +799,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,31 +811,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,7 +847,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,13 +865,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,7 +907,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,31 +967,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,37 +979,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,27 +1023,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1064,11 +1047,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1091,180 +1115,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1600,7 +1600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr fitToPage="1" autoPageBreaks="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AS2"/>
   <sheetViews>
@@ -1919,12 +1919,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr fitToPage="1" autoPageBreaks="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AM1021"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -43991,12 +43991,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr fitToPage="1" autoPageBreaks="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:W1119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
